--- a/沈阳鹏斓面辅料采购程序/表5.供货方.xlsx
+++ b/沈阳鹏斓面辅料采购程序/表5.供货方.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9000"/>
+    <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="面辅料总表" sheetId="10" r:id="rId1"/>
@@ -2970,14 +2970,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="181" formatCode="0.000_ "/>
@@ -3067,6 +3067,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3082,74 +3089,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3158,14 +3097,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3181,6 +3121,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3189,16 +3196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3230,18 +3230,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3249,54 +3237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3314,13 +3254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,6 +3309,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,24 +3375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3668,17 +3668,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3699,31 +3708,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3741,7 +3735,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3756,15 +3765,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3773,10 +3773,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3785,133 +3785,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
@@ -3991,10 +3991,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4015,7 +4015,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4024,111 +4024,111 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4141,7 +4141,7 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4180,7 +4180,7 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4189,7 +4189,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4207,10 +4207,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4219,10 +4219,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4553,7 +4553,7 @@
   <dimension ref="A1:K343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
